--- a/src/demos/zdemo_excel_comments.w3mi.data.xlsx
+++ b/src/demos/zdemo_excel_comments.w3mi.data.xlsx
@@ -427,10 +427,10 @@
     </row>
     <row r="3" spans="1:3">
       <c r="B3" s="2">
-        <v>44533</v>
+        <v>44534</v>
       </c>
       <c r="C3" s="3">
-        <v>0.5423726851851852</v>
+        <v>0.4749884259259259</v>
       </c>
     </row>
     <row r="4" spans="1:3">
@@ -473,7 +473,7 @@
     </row>
     <row r="4" spans="1:1">
       <c r="A4" s="2">
-        <v>44533</v>
+        <v>44534</v>
       </c>
     </row>
     <row r="6" spans="1:1">

--- a/src/demos/zdemo_excel_comments.w3mi.data.xlsx
+++ b/src/demos/zdemo_excel_comments.w3mi.data.xlsx
@@ -78,23 +78,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8" uniqueCount="7">
-  <si>
-    <t>Click here to visit abap2xlsx homepage</t>
-  </si>
-  <si>
-    <t>Current Date:</t>
-  </si>
-  <si>
-    <t>Date Format set to YYYYMMDD</t>
-  </si>
-  <si>
-    <t>Hello world</t>
-  </si>
-  <si>
-    <t>This is link to the third sheet</t>
-  </si>
-</sst>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="0" uniqueCount="0"/>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
@@ -133,11 +117,9 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="1" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="21" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -409,46 +391,21 @@
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
   </sheetPr>
-  <dimension ref="B2:C4"/>
+  <dimension ref="A1"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" zoomScaleSheetLayoutView="100" workbookViewId="0" showGridLines="1" showRowColHeaders="1">
       <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:outlineLevelCol="0"/>
-  <cols>
-    <col min="2" max="2" width="9.10"/>
-    <col min="3" max="3" width="9.10"/>
-  </cols>
   <sheetData>
-    <row r="1" spans="1:3">
+    <row r="1" spans="1:1">
       <c r=""/>
     </row>
-    <row r="2" spans="1:3">
-      <c r="B2" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="3" spans="1:3">
-      <c r="B3" s="2">
-        <v>44557</v>
-      </c>
-      <c r="C3" s="3">
-        <v>0.7722453703703703</v>
-      </c>
-    </row>
-    <row r="4" spans="1:3">
-      <c r="B4" t="s">
-        <v>0</v>
-      </c>
-    </row>
   </sheetData>
-  <hyperlinks>
-    <hyperlink ref="B4" r:id="rId1"/>
-  </hyperlinks>
   <pageMargins left="0.70" right="0.70" top="0.75" bottom="0.75" header="0.30" footer="0.30"/>
   <pageSetup/>
-  <legacyDrawing r:id="rId2"/>
+  <legacyDrawing r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -457,41 +414,18 @@
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
   </sheetPr>
-  <dimension ref="A1:A6"/>
+  <dimension ref="A1"/>
   <sheetViews>
     <sheetView tabSelected="0" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" zoomScaleSheetLayoutView="100" workbookViewId="0" showGridLines="1" showRowColHeaders="1">
       <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:outlineLevelCol="0"/>
-  <cols>
-    <col min="1" max="1" width="9.10"/>
-  </cols>
   <sheetData>
     <row r="1" spans="1:1">
-      <c r="A1" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="3" spans="1:1">
-      <c r="A3" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="4" spans="1:1">
-      <c r="A4" s="2">
-        <v>44557</v>
-      </c>
-    </row>
-    <row r="6" spans="1:1">
-      <c r="A6" t="s">
-        <v>4</v>
-      </c>
+      <c r=""/>
     </row>
   </sheetData>
-  <hyperlinks>
-    <hyperlink ref="A6" location="Sheet3!B2"/>
-  </hyperlinks>
   <pageMargins left="0.70" right="0.70" top="0.75" bottom="0.75" header="0.30" footer="0.30"/>
   <pageSetup/>
   <legacyDrawing r:id="rId1"/>
